--- a/Arduino/Sensor Readings.xlsx
+++ b/Arduino/Sensor Readings.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soong\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\soong\Desktop\Project\Arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11148" windowHeight="3768"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11148" windowHeight="3768" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Short" sheetId="3" r:id="rId1"/>
     <sheet name="Long" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1475,6 +1476,1146 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Short!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IR4 (front right)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10763692038495189"/>
+                  <c:y val="-5.6692913385826771E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Short!$M$2:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.44672489082969435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48368794326241138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53420365535248049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56519337016574589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60892857142857137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64339622641509431</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68657718120805367</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73071428571428576</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77207547169811319</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80551181102362202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84197530864197523</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90933333333333344</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0712041884816754</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1430167597765364</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2325301204819279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E8A-4C46-938E-F1BFDFC33FDE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="335044312"/>
+        <c:axId val="548747056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="335044312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548747056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="548747056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="335044312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Short!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IR5 (back right)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Short!$N$2:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.44575163398692813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47915690866510541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52461538461538459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56054794520547946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60353982300884956</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64339622641509431</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67973421926910294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72553191489361701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75220588235294117</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7930232558139535</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8973684210526317</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95607476635514022</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0385786802030457</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1758620689655173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3970-45F3-8382-75CAD851DF69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="483259616"/>
+        <c:axId val="483253712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="483259616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483253712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="483253712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="483259616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Long!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IR 6(Long)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8186570428696414E-2"/>
+                  <c:y val="-7.646325459317585E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Long!$F$2:$F$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.40756972111553785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41585365853658535</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43164556962025313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44967032967032972</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46605922551252849</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4859857482185273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51278195488721801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.54270557029177724</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.56519337016574589</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.59304347826086956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62760736196319022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.65576923076923077</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.71789473684210525</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74945054945054945</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.77794676806083651</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.79610894941634247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B629-46D0-9922-67A767F6D0BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="481679800"/>
+        <c:axId val="232022240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="481679800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="232022240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="232022240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481679800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1595,6 +2736,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2628,6 +3889,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3184,15 +5993,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>13449</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>13446</xdr:rowOff>
+      <xdr:colOff>578226</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>138952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>147920</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>103097</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>13446</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3220,15 +6029,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>605117</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>4482</xdr:rowOff>
+      <xdr:colOff>587188</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>129987</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>58270</xdr:rowOff>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>31376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3248,6 +6057,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>345141</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>174813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>264459</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>49307</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533DF1B3-54AD-42E1-B920-4B0C879A7B0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542365</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129988</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>4482</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0319238-D4EA-4880-A080-704C0FC74360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198126</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>502926</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C92A5F6-3BF7-4758-8B29-931311880FF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3555,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3618,8 +6540,12 @@
       <c r="D2">
         <v>446</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="2">
+        <v>458</v>
+      </c>
+      <c r="F2" s="2">
+        <v>459</v>
+      </c>
       <c r="I2">
         <v>10</v>
       </c>
@@ -3635,13 +6561,13 @@
         <f t="shared" si="0"/>
         <v>0.45874439461883409</v>
       </c>
-      <c r="M2" s="1" t="e">
+      <c r="M2" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2" s="1" t="e">
+        <v>0.44672489082969435</v>
+      </c>
+      <c r="N2" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.44575163398692813</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -3657,8 +6583,12 @@
       <c r="D3">
         <v>409</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="E3" s="2">
+        <v>423</v>
+      </c>
+      <c r="F3" s="2">
+        <v>427</v>
+      </c>
       <c r="I3">
         <v>11</v>
       </c>
@@ -3674,13 +6604,13 @@
         <f t="shared" si="0"/>
         <v>0.5002444987775061</v>
       </c>
-      <c r="M3" s="1" t="e">
+      <c r="M3" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="1" t="e">
+        <v>0.48368794326241138</v>
+      </c>
+      <c r="N3" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.47915690866510541</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -3696,8 +6626,12 @@
       <c r="D4">
         <v>379</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="2">
+        <v>383</v>
+      </c>
+      <c r="F4" s="2">
+        <v>390</v>
+      </c>
       <c r="I4">
         <v>12</v>
       </c>
@@ -3713,13 +6647,13 @@
         <f t="shared" si="0"/>
         <v>0.53984168865435356</v>
       </c>
-      <c r="M4" s="1" t="e">
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="1" t="e">
+        <v>0.53420365535248049</v>
+      </c>
+      <c r="N4" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.52461538461538459</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -3735,8 +6669,12 @@
       <c r="D5">
         <v>351</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2">
+        <v>362</v>
+      </c>
+      <c r="F5" s="2">
+        <v>365</v>
+      </c>
       <c r="I5">
         <v>13</v>
       </c>
@@ -3752,13 +6690,13 @@
         <f t="shared" si="0"/>
         <v>0.58290598290598294</v>
       </c>
-      <c r="M5" s="1" t="e">
+      <c r="M5" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="1" t="e">
+        <v>0.56519337016574589</v>
+      </c>
+      <c r="N5" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.56054794520547946</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -3774,8 +6712,12 @@
       <c r="D6">
         <v>330</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="E6" s="2">
+        <v>336</v>
+      </c>
+      <c r="F6" s="2">
+        <v>339</v>
+      </c>
       <c r="I6">
         <v>14</v>
       </c>
@@ -3791,13 +6733,13 @@
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-      <c r="M6" s="1" t="e">
+      <c r="M6" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="1" t="e">
+        <v>0.60892857142857137</v>
+      </c>
+      <c r="N6" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.60353982300884956</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -3813,8 +6755,12 @@
       <c r="D7">
         <v>306</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="E7" s="2">
+        <v>318</v>
+      </c>
+      <c r="F7" s="2">
+        <v>318</v>
+      </c>
       <c r="I7">
         <v>15</v>
       </c>
@@ -3830,13 +6776,13 @@
         <f t="shared" si="0"/>
         <v>0.66862745098039211</v>
       </c>
-      <c r="M7" s="1" t="e">
+      <c r="M7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="1" t="e">
+        <v>0.64339622641509431</v>
+      </c>
+      <c r="N7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.64339622641509431</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -3852,8 +6798,12 @@
       <c r="D8">
         <v>285</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="E8" s="2">
+        <v>298</v>
+      </c>
+      <c r="F8" s="2">
+        <v>301</v>
+      </c>
       <c r="I8">
         <v>16</v>
       </c>
@@ -3869,13 +6819,13 @@
         <f t="shared" si="0"/>
         <v>0.71789473684210525</v>
       </c>
-      <c r="M8" s="1" t="e">
+      <c r="M8" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="1" t="e">
+        <v>0.68657718120805367</v>
+      </c>
+      <c r="N8" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.67973421926910294</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -3891,8 +6841,12 @@
       <c r="D9">
         <v>275</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="E9" s="2">
+        <v>280</v>
+      </c>
+      <c r="F9" s="2">
+        <v>282</v>
+      </c>
       <c r="I9">
         <v>17</v>
       </c>
@@ -3908,13 +6862,13 @@
         <f t="shared" si="0"/>
         <v>0.74399999999999999</v>
       </c>
-      <c r="M9" s="1" t="e">
+      <c r="M9" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="1" t="e">
+        <v>0.73071428571428576</v>
+      </c>
+      <c r="N9" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.72553191489361701</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -3930,8 +6884,12 @@
       <c r="D10">
         <v>270</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="E10" s="2">
+        <v>265</v>
+      </c>
+      <c r="F10" s="2">
+        <v>272</v>
+      </c>
       <c r="I10">
         <v>18</v>
       </c>
@@ -3947,13 +6905,13 @@
         <f t="shared" si="3"/>
         <v>0.75777777777777777</v>
       </c>
-      <c r="M10" s="1" t="e">
+      <c r="M10" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="1" t="e">
+        <v>0.77207547169811319</v>
+      </c>
+      <c r="N10" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.75220588235294117</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -3969,8 +6927,12 @@
       <c r="D11">
         <v>258</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="E11" s="2">
+        <v>254</v>
+      </c>
+      <c r="F11" s="2">
+        <v>258</v>
+      </c>
       <c r="I11">
         <v>19</v>
       </c>
@@ -3986,13 +6948,13 @@
         <f t="shared" si="3"/>
         <v>0.7930232558139535</v>
       </c>
-      <c r="M11" s="1" t="e">
+      <c r="M11" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="1" t="e">
+        <v>0.80551181102362202</v>
+      </c>
+      <c r="N11" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.7930232558139535</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -4008,8 +6970,12 @@
       <c r="D12">
         <v>249</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2">
+        <v>243</v>
+      </c>
+      <c r="F12" s="2">
+        <v>248</v>
+      </c>
       <c r="I12">
         <v>20</v>
       </c>
@@ -4025,13 +6991,13 @@
         <f t="shared" si="3"/>
         <v>0.82168674698795174</v>
       </c>
-      <c r="M12" s="1" t="e">
+      <c r="M12" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="1" t="e">
+        <v>0.84197530864197523</v>
+      </c>
+      <c r="N12" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -4047,8 +7013,12 @@
       <c r="D13">
         <v>226</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="E13" s="2">
+        <v>225</v>
+      </c>
+      <c r="F13" s="2">
+        <v>228</v>
+      </c>
       <c r="I13">
         <v>22</v>
       </c>
@@ -4064,13 +7034,13 @@
         <f t="shared" si="3"/>
         <v>0.90530973451327446</v>
       </c>
-      <c r="M13" s="1" t="e">
+      <c r="M13" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="1" t="e">
+        <v>0.90933333333333344</v>
+      </c>
+      <c r="N13" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.8973684210526317</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -4086,8 +7056,12 @@
       <c r="D14">
         <v>208</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="2">
+        <v>210</v>
+      </c>
+      <c r="F14" s="2">
+        <v>214</v>
+      </c>
       <c r="I14">
         <v>24</v>
       </c>
@@ -4103,13 +7077,13 @@
         <f t="shared" si="3"/>
         <v>0.98365384615384621</v>
       </c>
-      <c r="M14" s="1" t="e">
+      <c r="M14" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="1" t="e">
+        <v>0.97428571428571431</v>
+      </c>
+      <c r="N14" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.95607476635514022</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
@@ -4125,8 +7099,12 @@
       <c r="D15">
         <v>197</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="E15" s="2">
+        <v>191</v>
+      </c>
+      <c r="F15" s="2">
+        <v>197</v>
+      </c>
       <c r="I15">
         <v>26</v>
       </c>
@@ -4142,13 +7120,13 @@
         <f t="shared" si="3"/>
         <v>1.0385786802030457</v>
       </c>
-      <c r="M15" s="1" t="e">
+      <c r="M15" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="1" t="e">
+        <v>1.0712041884816754</v>
+      </c>
+      <c r="N15" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.0385786802030457</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -4164,8 +7142,12 @@
       <c r="D16">
         <v>186</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="E16" s="2">
+        <v>179</v>
+      </c>
+      <c r="F16" s="2">
+        <v>186</v>
+      </c>
       <c r="I16">
         <v>28</v>
       </c>
@@ -4181,13 +7163,13 @@
         <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="M16" s="1" t="e">
+      <c r="M16" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="1" t="e">
+        <v>1.1430167597765364</v>
+      </c>
+      <c r="N16" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -4203,8 +7185,12 @@
       <c r="D17">
         <v>176</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="2">
+        <v>166</v>
+      </c>
+      <c r="F17" s="2">
+        <v>174</v>
+      </c>
       <c r="I17">
         <v>30</v>
       </c>
@@ -4220,13 +7206,13 @@
         <f t="shared" si="3"/>
         <v>1.1625000000000001</v>
       </c>
-      <c r="M17" s="1" t="e">
+      <c r="M17" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="1" t="e">
+        <v>1.2325301204819279</v>
+      </c>
+      <c r="N17" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.1758620689655173</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -4242,8 +7228,12 @@
       <c r="D18">
         <v>166</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="E18" s="2">
+        <v>157</v>
+      </c>
+      <c r="F18" s="2">
+        <v>168</v>
+      </c>
       <c r="I18">
         <v>32</v>
       </c>
@@ -4259,13 +7249,13 @@
         <f t="shared" si="3"/>
         <v>1.2325301204819279</v>
       </c>
-      <c r="M18" s="1" t="e">
+      <c r="M18" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="1" t="e">
+        <v>1.3031847133757961</v>
+      </c>
+      <c r="N18" s="1">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.2178571428571427</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -4281,8 +7271,12 @@
       <c r="D19">
         <v>158</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="2">
+        <v>149</v>
+      </c>
+      <c r="F19" s="2">
+        <v>162</v>
+      </c>
       <c r="I19">
         <v>34</v>
       </c>
@@ -4298,13 +7292,13 @@
         <f t="shared" ref="L19:L25" si="5" xml:space="preserve"> 1/(D19  * 5/1023)</f>
         <v>1.2949367088607595</v>
       </c>
-      <c r="M19" s="1" t="e">
+      <c r="M19" s="1">
         <f t="shared" ref="M19:M25" si="6" xml:space="preserve"> 1/(E19  * 5/1023)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="1" t="e">
+        <v>1.3731543624161073</v>
+      </c>
+      <c r="N19" s="1">
         <f t="shared" ref="N19:N25" si="7" xml:space="preserve"> 1/(F19  * 5/1023)</f>
-        <v>#DIV/0!</v>
+        <v>1.2629629629629631</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -4549,10 +7543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4573,258 +7567,296 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="e">
-        <f xml:space="preserve"> 1/(B2 * 5/1023)</f>
-        <v>#DIV/0!</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <v>502</v>
+      </c>
+      <c r="E2" s="3">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F24" si="0" xml:space="preserve"> 1/(B2 * 5/1023)</f>
+        <v>0.40756972111553785</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="e">
-        <f t="shared" ref="F3:F25" si="0" xml:space="preserve"> 1/(B3 * 5/1023)</f>
-        <v>#DIV/0!</v>
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>492</v>
+      </c>
+      <c r="E3" s="3">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41585365853658535</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="e">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>474</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.43164556962025313</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="E5">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="e">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <v>455</v>
+      </c>
+      <c r="E5" s="3">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.44967032967032972</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>16</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="E6">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="e">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>439</v>
+      </c>
+      <c r="E6" s="3">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.46605922551252849</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="E7">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="e">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1">
+        <v>421</v>
+      </c>
+      <c r="E7" s="3">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.4859857482185273</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="E8">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="e">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1">
+        <v>399</v>
+      </c>
+      <c r="E8" s="3">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.51278195488721801</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="E9">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="e">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1">
+        <v>377</v>
+      </c>
+      <c r="E9" s="3">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.54270557029177724</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="E10">
-        <v>22</v>
-      </c>
-      <c r="F10" s="1" t="e">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1">
+        <v>362</v>
+      </c>
+      <c r="E10" s="3">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.56519337016574589</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="E11">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1" t="e">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1">
+        <v>345</v>
+      </c>
+      <c r="E11" s="3">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.59304347826086956</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="E12">
-        <v>25</v>
-      </c>
-      <c r="F12" s="1" t="e">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1">
+        <v>326</v>
+      </c>
+      <c r="E12" s="3">
+        <v>36</v>
+      </c>
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.62760736196319022</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="E13">
-        <v>26</v>
-      </c>
-      <c r="F13" s="1" t="e">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1">
+        <v>312</v>
+      </c>
+      <c r="E13" s="3">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.65576923076923077</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="E14">
-        <v>28</v>
-      </c>
-      <c r="F14" s="1" t="e">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
+        <v>40</v>
+      </c>
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.68199999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="E15">
-        <v>30</v>
-      </c>
-      <c r="F15" s="1" t="e">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1">
+        <v>285</v>
+      </c>
+      <c r="E15" s="3">
+        <v>42</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.71789473684210525</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="E16">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1" t="e">
+      <c r="A16" s="3">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1">
+        <v>273</v>
+      </c>
+      <c r="E16" s="3">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.74945054945054945</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>32</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="E17">
-        <v>32</v>
-      </c>
-      <c r="F17" s="1" t="e">
+      <c r="A17" s="3">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1">
+        <v>263</v>
+      </c>
+      <c r="E17" s="3">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.77794676806083651</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>34</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="E18">
-        <v>34</v>
-      </c>
-      <c r="F18" s="1" t="e">
+      <c r="A18" s="3">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1">
+        <v>257</v>
+      </c>
+      <c r="E18" s="3">
+        <v>48</v>
+      </c>
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.79610894941634247</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="E19">
-        <v>36</v>
-      </c>
-      <c r="F19" s="1" t="e">
+      <c r="A19" s="3">
+        <v>50</v>
+      </c>
+      <c r="B19" s="1">
+        <v>250</v>
+      </c>
+      <c r="E19" s="3">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.81840000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="E20">
-        <v>37</v>
-      </c>
-      <c r="F20" s="1" t="e">
+      <c r="A20" s="3">
+        <v>54</v>
+      </c>
+      <c r="B20" s="1">
+        <v>234</v>
+      </c>
+      <c r="E20" s="3">
+        <v>54</v>
+      </c>
+      <c r="F20" s="1">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.87435897435897425</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>38</v>
+      <c r="A21" s="3">
+        <v>58</v>
       </c>
       <c r="B21" s="1"/>
       <c r="E21">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1" t="e">
         <f t="shared" si="0"/>
@@ -4832,12 +7864,12 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>40</v>
+      <c r="A22" s="3">
+        <v>62</v>
       </c>
       <c r="B22" s="1"/>
       <c r="E22">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F22" s="1" t="e">
         <f t="shared" si="0"/>
@@ -4845,12 +7877,12 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>44</v>
+      <c r="A23" s="3">
+        <v>66</v>
       </c>
       <c r="B23" s="1"/>
       <c r="E23">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F23" s="1" t="e">
         <f t="shared" si="0"/>
@@ -4858,12 +7890,12 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>48</v>
+      <c r="A24" s="3">
+        <v>70</v>
       </c>
       <c r="B24" s="1"/>
       <c r="E24">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F24" s="1" t="e">
         <f t="shared" si="0"/>
@@ -4871,19 +7903,17 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>52</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="E25">
-        <v>52</v>
-      </c>
-      <c r="F25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="A25" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Arduino/Sensor Readings.xlsx
+++ b/Arduino/Sensor Readings.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11148" windowHeight="3768" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11148" windowHeight="3768"/>
   </bookViews>
   <sheets>
     <sheet name="Short" sheetId="3" r:id="rId1"/>
     <sheet name="Long" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1531,11 +1530,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Short!$M$1</c:f>
+              <c:f>Short!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IR4 (front right)</c:v>
+                  <c:v>IR5 (back right)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1578,12 +1577,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.10763692038495189"/>
-                  <c:y val="-5.6692913385826771E-2"/>
-                </c:manualLayout>
-              </c:layout>
               <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1614,59 +1607,116 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:yVal>
+          <c:xVal>
             <c:numRef>
-              <c:f>Short!$M$2:$M$17</c:f>
+              <c:f>Short!$I$2:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.44672489082969435</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.48368794326241138</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53420365535248049</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56519337016574589</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60892857142857137</c:v>
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Short!$N$2:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.44575163398692813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47915690866510541</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52461538461538459</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56054794520547946</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60353982300884956</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.64339622641509431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.68657718120805367</c:v>
+                  <c:v>0.67973421926910294</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73071428571428576</c:v>
+                  <c:v>0.72553191489361701</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77207547169811319</c:v>
+                  <c:v>0.75220588235294117</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.80551181102362202</c:v>
+                  <c:v>0.7930232558139535</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.84197530864197523</c:v>
+                  <c:v>0.82499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.90933333333333344</c:v>
+                  <c:v>0.8973684210526317</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97428571428571431</c:v>
+                  <c:v>0.95607476635514022</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0712041884816754</c:v>
+                  <c:v>1.0385786802030457</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1430167597765364</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.2325301204819279</c:v>
+                  <c:v>1.1758620689655173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,7 +1724,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E8A-4C46-938E-F1BFDFC33FDE}"/>
+              <c16:uniqueId val="{00000000-2E58-460D-9E33-BA2780DEDA8F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1686,11 +1736,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="335044312"/>
-        <c:axId val="548747056"/>
+        <c:axId val="467324312"/>
+        <c:axId val="467326280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="335044312"/>
+        <c:axId val="467324312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1710,6 +1760,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1746,12 +1797,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="548747056"/>
+        <c:crossAx val="467326280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="548747056"/>
+        <c:axId val="467326280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,7 +1859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="335044312"/>
+        <c:crossAx val="467324312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1820,6 +1871,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1912,11 +1994,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Short!$N$1</c:f>
+              <c:f>Short!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>IR5 (back right)</c:v>
+                  <c:v>IR4 (front right)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1989,59 +2071,116 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:yVal>
+          <c:xVal>
             <c:numRef>
-              <c:f>Short!$N$2:$N$17</c:f>
+              <c:f>Short!$I$2:$I$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.44575163398692813</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47915690866510541</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52461538461538459</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56054794520547946</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60353982300884956</c:v>
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Short!$M$2:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.44672489082969435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.48368794326241138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53420365535248049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56519337016574589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60892857142857137</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.64339622641509431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67973421926910294</c:v>
+                  <c:v>0.68657718120805367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72553191489361701</c:v>
+                  <c:v>0.73071428571428576</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.75220588235294117</c:v>
+                  <c:v>0.77207547169811319</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.7930232558139535</c:v>
+                  <c:v>0.80551181102362202</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82499999999999996</c:v>
+                  <c:v>0.84197530864197523</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.8973684210526317</c:v>
+                  <c:v>0.90933333333333344</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.95607476635514022</c:v>
+                  <c:v>0.97428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0385786802030457</c:v>
+                  <c:v>1.0712041884816754</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.1430167597765364</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1758620689655173</c:v>
+                  <c:v>1.2325301204819279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,7 +2188,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3970-45F3-8382-75CAD851DF69}"/>
+              <c16:uniqueId val="{00000000-B0DB-44F1-B707-4E115CEE3448}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2061,11 +2200,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="483259616"/>
-        <c:axId val="483253712"/>
+        <c:axId val="554088784"/>
+        <c:axId val="554087472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="483259616"/>
+        <c:axId val="554088784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,6 +2224,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2121,12 +2261,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483253712"/>
+        <c:crossAx val="554087472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="483253712"/>
+        <c:axId val="554087472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2183,7 +2323,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="483259616"/>
+        <c:crossAx val="554088784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2195,6 +2335,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2285,17 +2456,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Long!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>IR 6(Long)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -2334,13 +2494,7 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.8186570428696414E-2"/>
-                  <c:y val="-7.646325459317585E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:numFmt formatCode="#,##0.00000" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2370,12 +2524,78 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Long!$E$2:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Long!$F$2:$F$18</c:f>
+              <c:f>Long!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>0.40756972111553785</c:v>
                 </c:pt>
@@ -2426,6 +2646,12 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.79610894941634247</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.81840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.87435897435897425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2433,7 +2659,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B629-46D0-9922-67A767F6D0BE}"/>
+              <c16:uniqueId val="{00000000-D590-4F28-A0E6-CFE01C448B25}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2445,11 +2671,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="481679800"/>
-        <c:axId val="232022240"/>
+        <c:axId val="464877456"/>
+        <c:axId val="464876472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="481679800"/>
+        <c:axId val="464877456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2469,6 +2695,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2505,12 +2732,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232022240"/>
+        <c:crossAx val="464876472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232022240"/>
+        <c:axId val="464876472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2567,7 +2794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481679800"/>
+        <c:crossAx val="464877456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6064,23 +6291,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>345141</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>174813</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>506506</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>264459</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>49307</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>174812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533DF1B3-54AD-42E1-B920-4B0C879A7B0B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EB98A0-B1C5-49A8-B702-3A35FAF9B2B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6100,23 +6327,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542365</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>434789</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>129988</xdr:rowOff>
+      <xdr:rowOff>138953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
+      <xdr:colOff>569259</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>4482</xdr:rowOff>
+      <xdr:rowOff>13447</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0319238-D4EA-4880-A080-704C0FC74360}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5913F0-78C6-48B5-8B5E-964EEB89EEBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6141,23 +6368,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>198126</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>502926</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C92A5F6-3BF7-4758-8B29-931311880FF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB3215B-3DD0-42A0-9D3E-BE89C211DDD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6477,8 +6704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="I1:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7545,8 +7772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P6" sqref="P6:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
